--- a/specs/output/server/GameConfig.xlsx
+++ b/specs/output/server/GameConfig.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,15 +411,12 @@
         <v>字段ID</v>
       </c>
       <c r="B1" t="str">
-        <v>字段类型</v>
+        <v>字段名称</v>
       </c>
       <c r="C1" t="str">
-        <v>字段名称</v>
+        <v>字段值</v>
       </c>
       <c r="D1" t="str">
-        <v>字段值</v>
-      </c>
-      <c r="E1" t="str">
         <v>描述</v>
       </c>
     </row>
@@ -428,15 +425,12 @@
         <v>Id</v>
       </c>
       <c r="B2" t="str">
-        <v>Format</v>
+        <v>Key</v>
       </c>
       <c r="C2" t="str">
-        <v>Key</v>
+        <v>Value</v>
       </c>
       <c r="D2" t="str">
-        <v>Value</v>
-      </c>
-      <c r="E2" t="str">
         <v>Desc</v>
       </c>
     </row>
@@ -445,15 +439,12 @@
         <v>int</v>
       </c>
       <c r="B3" t="str">
+        <v>EConfigKey</v>
+      </c>
+      <c r="C3" t="str">
         <v>string</v>
       </c>
-      <c r="C3" t="str">
-        <v>EConfigKey</v>
-      </c>
       <c r="D3" t="str">
-        <v>string</v>
-      </c>
-      <c r="E3" t="str">
         <v>string</v>
       </c>
     </row>
@@ -462,15 +453,12 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>int</v>
-      </c>
-      <c r="C4" t="str">
         <v>Bacepool_On</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>15000</v>
       </c>
-      <c r="E4" t="str">
+      <c r="D4" t="str">
         <v>基础池放水金额</v>
       </c>
     </row>
@@ -479,15 +467,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="str">
-        <v>int</v>
-      </c>
-      <c r="C5" t="str">
         <v>Bacepool_Off</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>5000</v>
       </c>
-      <c r="E5" t="str">
+      <c r="D5" t="str">
         <v>基础池蓄水金额</v>
       </c>
     </row>
@@ -496,15 +481,12 @@
         <v>3</v>
       </c>
       <c r="B6" t="str">
-        <v>int</v>
-      </c>
-      <c r="C6" t="str">
         <v>Middlepoor_Limit</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>30000</v>
       </c>
-      <c r="E6" t="str">
+      <c r="D6" t="str">
         <v>中级池上限</v>
       </c>
     </row>
@@ -513,15 +495,12 @@
         <v>4</v>
       </c>
       <c r="B7" t="str">
-        <v>int</v>
-      </c>
-      <c r="C7" t="str">
         <v>Seniorpoor_Limit</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>300000</v>
       </c>
-      <c r="E7" t="str">
+      <c r="D7" t="str">
         <v>高级池上限</v>
       </c>
     </row>
@@ -530,15 +509,12 @@
         <v>5</v>
       </c>
       <c r="B8" t="str">
-        <v>ints</v>
+        <v>Proportion</v>
       </c>
       <c r="C8" t="str">
-        <v>Proportion</v>
+        <v>[5500,2500,1500]</v>
       </c>
       <c r="D8" t="str">
-        <v>[5500,2500,1500]</v>
-      </c>
-      <c r="E8" t="str">
         <v>三个池子概率(万分比,池子排序由高到低)</v>
       </c>
     </row>
@@ -547,15 +523,12 @@
         <v>6</v>
       </c>
       <c r="B9" t="str">
-        <v>int</v>
-      </c>
-      <c r="C9" t="str">
         <v>Brokerage</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>500</v>
       </c>
-      <c r="E9" t="str">
+      <c r="D9" t="str">
         <v>抽水</v>
       </c>
     </row>
@@ -564,15 +537,12 @@
         <v>7</v>
       </c>
       <c r="B10" t="str">
-        <v>int</v>
-      </c>
-      <c r="C10" t="str">
         <v>Initial_Gold</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>500</v>
       </c>
-      <c r="E10" t="str">
+      <c r="D10" t="str">
         <v>初始金币</v>
       </c>
     </row>
@@ -581,15 +551,12 @@
         <v>8</v>
       </c>
       <c r="B11" t="str">
-        <v>ints</v>
+        <v>Coin_Iron_Axe</v>
       </c>
       <c r="C11" t="str">
-        <v>Coin_Iron_Axe</v>
+        <v>[100,200]</v>
       </c>
       <c r="D11" t="str">
-        <v>[100,200]</v>
-      </c>
-      <c r="E11" t="str">
         <v>铁斧子随机金币</v>
       </c>
     </row>
@@ -598,15 +565,12 @@
         <v>9</v>
       </c>
       <c r="B12" t="str">
-        <v>ints</v>
+        <v>Coin_Silver_Axe</v>
       </c>
       <c r="C12" t="str">
-        <v>Coin_Silver_Axe</v>
+        <v>[200,400]</v>
       </c>
       <c r="D12" t="str">
-        <v>[200,400]</v>
-      </c>
-      <c r="E12" t="str">
         <v>银斧子随机金币</v>
       </c>
     </row>
@@ -615,15 +579,12 @@
         <v>10</v>
       </c>
       <c r="B13" t="str">
-        <v>ints</v>
+        <v>Coin_Gold_Axe</v>
       </c>
       <c r="C13" t="str">
-        <v>Coin_Gold_Axe</v>
+        <v>[400,800]</v>
       </c>
       <c r="D13" t="str">
-        <v>[400,800]</v>
-      </c>
-      <c r="E13" t="str">
         <v>金斧子随机金币</v>
       </c>
     </row>
@@ -632,15 +593,12 @@
         <v>11</v>
       </c>
       <c r="B14" t="str">
-        <v>int</v>
-      </c>
-      <c r="C14" t="str">
         <v>Cost_Iron_Axe</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>160</v>
       </c>
-      <c r="E14" t="str">
+      <c r="D14" t="str">
         <v>铁斧子玫瑰消耗</v>
       </c>
     </row>
@@ -649,15 +607,12 @@
         <v>12</v>
       </c>
       <c r="B15" t="str">
-        <v>int</v>
-      </c>
-      <c r="C15" t="str">
         <v>Cost_Silver_Axe</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>300</v>
       </c>
-      <c r="E15" t="str">
+      <c r="D15" t="str">
         <v>银斧子玫瑰消耗</v>
       </c>
     </row>
@@ -666,22 +621,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="str">
-        <v>int</v>
-      </c>
-      <c r="C16" t="str">
         <v>Cost_Gold_Axe</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>500</v>
       </c>
-      <c r="E16" t="str">
+      <c r="D16" t="str">
         <v>金斧子玫瑰消耗</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/specs/output/server/GameConfig.xlsx
+++ b/specs/output/server/GameConfig.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +416,6 @@
       <c r="C1" t="str">
         <v>字段值</v>
       </c>
-      <c r="D1" t="str">
-        <v>描述</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -430,9 +427,6 @@
       <c r="C2" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" t="str">
-        <v>Desc</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -444,9 +438,6 @@
       <c r="C3" t="str">
         <v>string</v>
       </c>
-      <c r="D3" t="str">
-        <v>string</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -458,9 +449,6 @@
       <c r="C4">
         <v>15000</v>
       </c>
-      <c r="D4" t="str">
-        <v>基础池放水金额</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -472,9 +460,6 @@
       <c r="C5">
         <v>5000</v>
       </c>
-      <c r="D5" t="str">
-        <v>基础池蓄水金额</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -486,9 +471,6 @@
       <c r="C6">
         <v>30000</v>
       </c>
-      <c r="D6" t="str">
-        <v>中级池上限</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -500,9 +482,6 @@
       <c r="C7">
         <v>300000</v>
       </c>
-      <c r="D7" t="str">
-        <v>高级池上限</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -514,9 +493,6 @@
       <c r="C8" t="str">
         <v>[5500,2500,1500]</v>
       </c>
-      <c r="D8" t="str">
-        <v>三个池子概率(万分比,池子排序由高到低)</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -528,9 +504,6 @@
       <c r="C9">
         <v>500</v>
       </c>
-      <c r="D9" t="str">
-        <v>抽水</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -542,9 +515,6 @@
       <c r="C10">
         <v>500</v>
       </c>
-      <c r="D10" t="str">
-        <v>初始金币</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -556,9 +526,6 @@
       <c r="C11" t="str">
         <v>[100,200]</v>
       </c>
-      <c r="D11" t="str">
-        <v>铁斧子随机金币</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -570,9 +537,6 @@
       <c r="C12" t="str">
         <v>[200,400]</v>
       </c>
-      <c r="D12" t="str">
-        <v>银斧子随机金币</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -584,9 +548,6 @@
       <c r="C13" t="str">
         <v>[400,800]</v>
       </c>
-      <c r="D13" t="str">
-        <v>金斧子随机金币</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -598,9 +559,6 @@
       <c r="C14">
         <v>160</v>
       </c>
-      <c r="D14" t="str">
-        <v>铁斧子玫瑰消耗</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -612,9 +570,6 @@
       <c r="C15">
         <v>300</v>
       </c>
-      <c r="D15" t="str">
-        <v>银斧子玫瑰消耗</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -626,13 +581,10 @@
       <c r="C16">
         <v>500</v>
       </c>
-      <c r="D16" t="str">
-        <v>金斧子玫瑰消耗</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/specs/output/server/GameConfig.xlsx
+++ b/specs/output/server/GameConfig.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,16 @@
         <v>字段ID</v>
       </c>
       <c r="B1" t="str">
+        <v>字段类型</v>
+      </c>
+      <c r="C1" t="str">
         <v>字段名称</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>字段值</v>
+      </c>
+      <c r="E1" t="str">
+        <v>描述</v>
       </c>
     </row>
     <row r="2">
@@ -422,10 +428,16 @@
         <v>Id</v>
       </c>
       <c r="B2" t="str">
+        <v>Format</v>
+      </c>
+      <c r="C2" t="str">
         <v>Key</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>Value</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Desc</v>
       </c>
     </row>
     <row r="3">
@@ -433,9 +445,15 @@
         <v>int</v>
       </c>
       <c r="B3" t="str">
+        <v>string</v>
+      </c>
+      <c r="C3" t="str">
         <v>EConfigKey</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
+        <v>string</v>
+      </c>
+      <c r="E3" t="str">
         <v>string</v>
       </c>
     </row>
@@ -444,10 +462,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
+        <v>int</v>
+      </c>
+      <c r="C4" t="str">
         <v>Bacepool_On</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15000</v>
+      </c>
+      <c r="E4" t="str">
+        <v>基础池放水金额</v>
       </c>
     </row>
     <row r="5">
@@ -455,10 +479,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="str">
+        <v>int</v>
+      </c>
+      <c r="C5" t="str">
         <v>Bacepool_Off</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>基础池蓄水金额</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +496,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="str">
+        <v>int</v>
+      </c>
+      <c r="C6" t="str">
         <v>Middlepoor_Limit</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>30000</v>
+      </c>
+      <c r="E6" t="str">
+        <v>中级池上限</v>
       </c>
     </row>
     <row r="7">
@@ -477,10 +513,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="str">
+        <v>int</v>
+      </c>
+      <c r="C7" t="str">
         <v>Seniorpoor_Limit</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>300000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>高级池上限</v>
       </c>
     </row>
     <row r="8">
@@ -488,10 +530,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="str">
+        <v>ints</v>
+      </c>
+      <c r="C8" t="str">
         <v>Proportion</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>[5500,2500,1500]</v>
+      </c>
+      <c r="E8" t="str">
+        <v>三个池子概率(万分比,池子排序由高到低)</v>
       </c>
     </row>
     <row r="9">
@@ -499,10 +547,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="str">
+        <v>int</v>
+      </c>
+      <c r="C9" t="str">
         <v>Brokerage</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>500</v>
+      </c>
+      <c r="E9" t="str">
+        <v>抽水</v>
       </c>
     </row>
     <row r="10">
@@ -510,10 +564,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="str">
+        <v>int</v>
+      </c>
+      <c r="C10" t="str">
         <v>Initial_Gold</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>500</v>
+      </c>
+      <c r="E10" t="str">
+        <v>初始金币</v>
       </c>
     </row>
     <row r="11">
@@ -521,10 +581,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="str">
+        <v>ints</v>
+      </c>
+      <c r="C11" t="str">
         <v>Coin_Iron_Axe</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>[100,200]</v>
+      </c>
+      <c r="E11" t="str">
+        <v>铁斧子随机金币</v>
       </c>
     </row>
     <row r="12">
@@ -532,10 +598,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="str">
+        <v>ints</v>
+      </c>
+      <c r="C12" t="str">
         <v>Coin_Silver_Axe</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>[200,400]</v>
+      </c>
+      <c r="E12" t="str">
+        <v>银斧子随机金币</v>
       </c>
     </row>
     <row r="13">
@@ -543,10 +615,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="str">
+        <v>ints</v>
+      </c>
+      <c r="C13" t="str">
         <v>Coin_Gold_Axe</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>[400,800]</v>
+      </c>
+      <c r="E13" t="str">
+        <v>金斧子随机金币</v>
       </c>
     </row>
     <row r="14">
@@ -554,10 +632,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="str">
+        <v>int</v>
+      </c>
+      <c r="C14" t="str">
         <v>Cost_Iron_Axe</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>160</v>
+      </c>
+      <c r="E14" t="str">
+        <v>铁斧子玫瑰消耗</v>
       </c>
     </row>
     <row r="15">
@@ -565,10 +649,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="str">
+        <v>int</v>
+      </c>
+      <c r="C15" t="str">
         <v>Cost_Silver_Axe</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>300</v>
+      </c>
+      <c r="E15" t="str">
+        <v>银斧子玫瑰消耗</v>
       </c>
     </row>
     <row r="16">
@@ -576,15 +666,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="str">
+        <v>int</v>
+      </c>
+      <c r="C16" t="str">
         <v>Cost_Gold_Axe</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>500</v>
       </c>
+      <c r="E16" t="str">
+        <v>金斧子玫瑰消耗</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T22"/>
   </ignoredErrors>
 </worksheet>
 </file>